--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P07_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P07_trail3 Features.xlsx
@@ -5759,7 +5759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5770,29 +5770,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5813,115 +5811,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5938,72 +5926,66 @@
         <v>2.542670054833627e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.4080851152222383</v>
+        <v>9.465806273608014e-08</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.051808591476873</v>
+        <v>1.65080382865955e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>9.465806273608014e-08</v>
+        <v>-0.04731778890921762</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.65080382865955e-06</v>
+        <v>0.2500063147555532</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.04731778890921762</v>
+        <v>0.06462000334020788</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2500063147555532</v>
+        <v>1.932013603730087</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06462000334020788</v>
+        <v>3.679125208778917</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.9636082604943</v>
+        <v>9.817091545338192</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.679125208778917</v>
+        <v>2.002704345369873e-18</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>9.817091545338192</v>
+        <v>68134194659.51897</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.002704345369873e-18</v>
+        <v>1.772161801411789e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>68134194659.51897</v>
+        <v>9297.091261077187</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.772161801411789e-09</v>
+        <v>3.133882542156115e-06</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>9297.091261077187</v>
+        <v>5.537333989908609</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>3.133882542156115e-06</v>
+        <v>2.255033051118976</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>5.537333989908609</v>
+        <v>9.609131872094545e-05</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>2.255033051118976</v>
+        <v>8.743487078769336</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>9.609131872094545e-05</v>
+        <v>0.9623167934646411</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>8.743487078769336</v>
+        <v>0.6859671277351063</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9623167934646411</v>
+        <v>665</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.6859671277351063</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>665</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>21.11794462493516</v>
       </c>
     </row>
@@ -6018,72 +6000,66 @@
         <v>2.525525926734139e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.3614180456285457</v>
+        <v>7.894772236854223e-08</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.10853486982745</v>
+        <v>1.649848923980622e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.894772236854223e-08</v>
+        <v>-0.02921307816616537</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.649848923980622e-06</v>
+        <v>0.2022729492035929</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.02921307816616537</v>
+        <v>0.04170070937003663</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2022729492035929</v>
+        <v>1.935010943486437</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04170070937003663</v>
+        <v>3.553755965401458</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.963505260963069</v>
+        <v>9.209749746039495</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.553755965401458</v>
+        <v>2.27555251750896e-18</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>9.209749746039495</v>
+        <v>62467236605.14985</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.27555251750896e-18</v>
+        <v>1.937098618656901e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>62467236605.14985</v>
+        <v>8879.560110984388</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.937098618656901e-09</v>
+        <v>2.886431616994466e-06</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>8879.560110984388</v>
+        <v>5.646275140010324</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>2.886431616994466e-06</v>
+        <v>2.503605781182174</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>5.646275140010324</v>
+        <v>9.202066078537106e-05</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>2.503605781182174</v>
+        <v>8.858329637125671</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>9.202066078537106e-05</v>
+        <v>0.9620393614704543</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>8.858329637125671</v>
+        <v>0.7512327992735222</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9620393614704543</v>
+        <v>647</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.7512327992735222</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>647</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>21.60949059244975</v>
       </c>
     </row>
@@ -6098,72 +6074,66 @@
         <v>2.545289855774418e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.3069029736942112</v>
+        <v>7.894772236854223e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.177409136673356</v>
+        <v>1.649284607606094e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.894772236854223e-08</v>
+        <v>-0.0162742004548332</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.649284607606094e-06</v>
+        <v>0.1691756120666504</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.0162742004548332</v>
+        <v>0.02885076000753471</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1691756120666504</v>
+        <v>1.932074575003505</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02885076000753471</v>
+        <v>3.910145315134582</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.963914272069427</v>
+        <v>9.156769180076981</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.910145315134582</v>
+        <v>2.301961141519599e-18</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>9.156769180076981</v>
+        <v>61205107992.66709</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.301961141519599e-18</v>
+        <v>1.974435555443925e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>61205107992.66709</v>
+        <v>8623.296626192203</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.974435555443925e-09</v>
+        <v>3.701726029888334e-06</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>8623.296626192203</v>
+        <v>6.657921391612189</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>3.701726029888334e-06</v>
+        <v>2.185541260024031</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>6.657921391612189</v>
+        <v>0.0001640898051605555</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>2.185541260024031</v>
+        <v>8.828447508765663</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0001640898051605555</v>
+        <v>0.9617256947736801</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>8.828447508765663</v>
+        <v>0.72717609004201</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9617256947736801</v>
+        <v>624</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.72717609004201</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>624</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>20.54832351684113</v>
       </c>
     </row>
@@ -6178,72 +6148,66 @@
         <v>2.567451545015769e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.2854665322768551</v>
+        <v>7.894772236854223e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.22881271540107</v>
+        <v>1.648987320758888e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.894772236854223e-08</v>
+        <v>-0.007726408827532408</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.648987320758888e-06</v>
+        <v>0.1494589800402225</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.007726408827532408</v>
+        <v>0.02238078389650135</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1494589800402225</v>
+        <v>1.930477055250828</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02238078389650135</v>
+        <v>3.773676656634108</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.963213690829354</v>
+        <v>9.299716013197571</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.773676656634108</v>
+        <v>2.231737693167323e-18</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>9.299716013197571</v>
+        <v>61178839158.57451</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.231737693167323e-18</v>
+        <v>1.974918175207613e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>61178839158.57451</v>
+        <v>8353.060230061586</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.974918175207613e-09</v>
+        <v>5.620499253945224e-06</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>8353.060230061586</v>
+        <v>7.207107008215875</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>5.620499253945224e-06</v>
+        <v>1.615627033898156</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.207107008215875</v>
+        <v>0.0002919421722684987</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.615627033898156</v>
+        <v>8.602001947030443</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0002919421722684987</v>
+        <v>0.9606222390939335</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>8.602001947030443</v>
+        <v>0.7162507869178789</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9606222390939335</v>
+        <v>591</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.7162507869178789</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>591</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>18.27665743437775</v>
       </c>
     </row>
@@ -6258,72 +6222,66 @@
         <v>2.580472411079941e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.2822922422556696</v>
+        <v>7.894772236854223e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.247683531397393</v>
+        <v>1.648861855272785e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.894772236854223e-08</v>
+        <v>-0.002580540770049648</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.648861855272785e-06</v>
+        <v>0.1396418834913359</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.002580540770049648</v>
+        <v>0.01949876538001714</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1396418834913359</v>
+        <v>1.93833829319893</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01949876538001714</v>
+        <v>3.405616920044383</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.969002582413834</v>
+        <v>9.011176845038431</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.405616920044383</v>
+        <v>2.08444854436556e-18</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>9.011176845038431</v>
+        <v>64704861733.43034</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.08444854436556e-18</v>
+        <v>1.86909968023865e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>64704861733.43034</v>
+        <v>8727.000600244646</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.86909968023865e-09</v>
+        <v>7.978018039696851e-06</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>8727.000600244646</v>
+        <v>7.751414431811448</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>7.978018039696851e-06</v>
+        <v>1.401525606244503</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.751414431811448</v>
+        <v>0.000479354632089122</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.401525606244503</v>
+        <v>8.347640294532519</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.000479354632089122</v>
+        <v>0.9615775985543087</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>8.347640294532519</v>
+        <v>0.7098792591899121</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9615775985543087</v>
+        <v>575</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.7098792591899121</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>575</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>16.68300717311027</v>
       </c>
     </row>
@@ -6338,72 +6296,66 @@
         <v>2.583962115620093e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.2828435691100065</v>
+        <v>7.894772236854223e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.250176469118464</v>
+        <v>1.648834091029797e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>7.894772236854223e-08</v>
+        <v>2.354025277786201e-05</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.648834091029797e-06</v>
+        <v>0.1359139588655552</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>2.354025277786201e-05</v>
+        <v>0.01846917682671428</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1359139588655552</v>
+        <v>1.936135348737672</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01846917682671428</v>
+        <v>3.598017386383887</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.968664429943643</v>
+        <v>9.464156128478569</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.598017386383887</v>
+        <v>1.889689335734741e-18</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>9.464156128478569</v>
+        <v>68021040479.03181</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.889689335734741e-18</v>
+        <v>1.762630347962177e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>68021040479.03181</v>
+        <v>8743.331680769175</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.762630347962177e-09</v>
+        <v>8.612140183594616e-06</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>8743.331680769175</v>
+        <v>7.946932379711264</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>8.612140183594616e-06</v>
+        <v>1.364107534773279</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.946932379711264</v>
+        <v>0.0005438888124587014</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.364107534773279</v>
+        <v>8.29650860825252</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0005438888124587014</v>
+        <v>0.9605501581512538</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>8.29650860825252</v>
+        <v>0.6837747982006929</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9605501581512538</v>
+        <v>565</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.6837747982006929</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>565</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>16.41573443055322</v>
       </c>
     </row>
@@ -6418,72 +6370,66 @@
         <v>2.581723418681088e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.281629360923018</v>
+        <v>7.894772236854223e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.250652204162488</v>
+        <v>1.648850079753764e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>7.894772236854223e-08</v>
+        <v>0.0009869610010008545</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.648850079753764e-06</v>
+        <v>0.1350301544874751</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.0009869610010008545</v>
+        <v>0.01823220700980541</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1350301544874751</v>
+        <v>1.933887727719504</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01823220700980541</v>
+        <v>3.661081440485252</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.96516903450739</v>
+        <v>9.344088761912859</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.661081440485252</v>
+        <v>1.938564671940031e-18</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>9.344088761912859</v>
+        <v>66001511435.07896</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.938564671940031e-18</v>
+        <v>1.817509029739955e-09</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>66001511435.07896</v>
+        <v>8444.774477332836</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.817509029739955e-09</v>
+        <v>8.448007609812463e-06</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>8444.774477332836</v>
+        <v>7.362899226454349</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>8.448007609812463e-06</v>
+        <v>1.503361828642596</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.362899226454349</v>
+        <v>0.0004579857963851757</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.503361828642596</v>
+        <v>8.411449040095311</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0004579857963851757</v>
+        <v>0.9607419039417675</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>8.411449040095311</v>
+        <v>0.6717750264235572</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9607419039417675</v>
+        <v>566</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.6717750264235572</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>566</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>16.77627178621555</v>
       </c>
     </row>
@@ -6498,72 +6444,66 @@
         <v>2.577536917752085e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.2785989567512114</v>
+        <v>7.894772236854223e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.253707112249971</v>
+        <v>1.64887749381071e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>7.894772236854223e-08</v>
+        <v>0.0009838161485146884</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.64887749381071e-06</v>
+        <v>0.1352423262220402</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.0009838161485146884</v>
+        <v>0.0182901909246225</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1352423262220402</v>
+        <v>1.928174925185419</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.0182901909246225</v>
+        <v>3.812503299992848</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.959113863629779</v>
+        <v>9.257711503004614</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>3.812503299992848</v>
+        <v>1.974908226695988e-18</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>9.257711503004614</v>
+        <v>65003248187.62228</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.974908226695988e-18</v>
+        <v>1.843353410327892e-09</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>65003248187.62228</v>
+        <v>8344.821212046683</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.843353410327892e-09</v>
+        <v>9.626480032958882e-06</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>8344.821212046683</v>
+        <v>7.866058291895282</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>9.626480032958882e-06</v>
+        <v>1.780364790689674</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.866058291895282</v>
+        <v>0.0005956372299720776</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.780364790689674</v>
+        <v>8.458116712765834</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0005956372299720776</v>
+        <v>0.9613805129695878</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>8.458116712765834</v>
+        <v>0.7014909476605203</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9613805129695878</v>
+        <v>581</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.7014909476605203</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>581</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>16.96021856383052</v>
       </c>
     </row>
@@ -6578,72 +6518,66 @@
         <v>2.57444078905978e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.2758659347604584</v>
+        <v>7.894772236854223e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.257503262528023</v>
+        <v>1.648896638102947e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>7.894772236854223e-08</v>
+        <v>0.0003837747521281736</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.648896638102947e-06</v>
+        <v>0.1357985292031047</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.0003837747521281736</v>
+        <v>0.0184404561020993</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1357985292031047</v>
+        <v>1.925130208999793</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.0184404561020993</v>
+        <v>4.051412998371275</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.959568530119324</v>
+        <v>9.182964964619014</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>4.051412998371275</v>
+        <v>2.007189376654068e-18</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>9.182964964619014</v>
+        <v>63754009279.86941</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.007189376654068e-18</v>
+        <v>1.881447909836207e-09</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>63754009279.86941</v>
+        <v>8158.36914977753</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.881447909836207e-09</v>
+        <v>1.022244123197168e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>8158.36914977753</v>
+        <v>8.597253432931291</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>1.022244123197168e-05</v>
+        <v>1.49215533833715</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.597253432931291</v>
+        <v>0.000755568912759214</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.49215533833715</v>
+        <v>8.343187029604113</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.000755568912759214</v>
+        <v>0.9623846959820865</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>8.343187029604113</v>
+        <v>0.731088811347684</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9623846959820865</v>
+        <v>598</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.731088811347684</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>598</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>16.34715728823013</v>
       </c>
     </row>
@@ -6658,72 +6592,66 @@
         <v>2.575200981041685e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.2766916437502924</v>
+        <v>8.011337601158012e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.256036985181529</v>
+        <v>1.648892587423438e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>8.011337601158012e-08</v>
+        <v>-0.0008173957546346685</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.648892587423438e-06</v>
+        <v>0.1363742377887732</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.0008173957546346685</v>
+        <v>0.01859785478592881</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1363742377887732</v>
+        <v>1.925745900737535</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01859785478592881</v>
+        <v>3.497003192549096</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.958199081778174</v>
+        <v>9.066601801428995</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>3.497003192549096</v>
+        <v>2.059041595193175e-18</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>9.066601801428995</v>
+        <v>62532142526.5778</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.059041595193175e-18</v>
+        <v>1.921653861735969e-09</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>62532142526.5778</v>
+        <v>8051.406208405508</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.921653861735969e-09</v>
+        <v>1.099734238333679e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>8051.406208405508</v>
+        <v>9.15291179006128</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>1.099734238333679e-05</v>
+        <v>1.226941853974393</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.15291179006128</v>
+        <v>0.0009213110926563335</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.226941853974393</v>
+        <v>8.146709170178244</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0009213110926563335</v>
+        <v>0.9623485421123114</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>8.146709170178244</v>
+        <v>0.6754459689925087</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9623485421123114</v>
+        <v>588</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.6754459689925087</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>588</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>15.64590513801922</v>
       </c>
     </row>
@@ -6738,72 +6666,66 @@
         <v>2.582892721576348e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.2852273395030087</v>
+        <v>8.28122380840405e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.240438770685377</v>
+        <v>1.648849832957781e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>8.28122380840405e-08</v>
+        <v>-0.002612392127352741</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.648849832957781e-06</v>
+        <v>0.1366043629011044</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.002612392127352741</v>
+        <v>0.01866685552335304</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1366043629011044</v>
+        <v>1.924334906179311</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01866685552335304</v>
+        <v>3.809326701444898</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.961063258113251</v>
+        <v>9.561364352561649</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>3.809326701444898</v>
+        <v>2.17690387789947e-18</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>9.561364352561649</v>
+        <v>58944822932.57761</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.17690387789947e-18</v>
+        <v>2.033043067447028e-09</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>58944822932.57761</v>
+        <v>7563.635436269938</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.033043067447028e-09</v>
+        <v>1.141687438996186e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>7563.635436269938</v>
+        <v>8.998613294699188</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>1.141687438996186e-05</v>
+        <v>1.233086778370525</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.998613294699188</v>
+        <v>0.0009244818744167733</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.233086778370525</v>
+        <v>8.111706772975166</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.0009244818744167733</v>
+        <v>0.9613971445453677</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>8.111706772975166</v>
+        <v>0.6917636501802208</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9613971445453677</v>
+        <v>568</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.6917636501802208</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>568</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>15.56603803496439</v>
       </c>
     </row>
@@ -6818,72 +6740,66 @@
         <v>2.600620151147689e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.3052067743167398</v>
+        <v>8.541921448074995e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.202846063553842</v>
+        <v>1.648752329287971e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>8.541921448074995e-08</v>
+        <v>-0.005036047362804023</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.648752329287971e-06</v>
+        <v>0.1360780020299282</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.005036047362804023</v>
+        <v>0.01854161730162011</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1360780020299282</v>
+        <v>1.926032029015134</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01854161730162011</v>
+        <v>3.625663492629287</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.960063870319022</v>
+        <v>9.351204509389715</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>3.625663492629287</v>
+        <v>2.275851281091825e-18</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>9.351204509389715</v>
+        <v>57120344748.39334</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.275851281091825e-18</v>
+        <v>2.098825381593831e-09</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>57120344748.39334</v>
+        <v>7425.496862576949</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.098825381593831e-09</v>
+        <v>1.032980374316777e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>7425.496862576949</v>
+        <v>8.694902426808865</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>1.032980374316777e-05</v>
+        <v>1.301863529800537</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.694902426808865</v>
+        <v>0.0007809468831499499</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.301863529800537</v>
+        <v>8.262937265313688</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.0007809468831499499</v>
+        <v>0.9620502043887612</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>8.262937265313688</v>
+        <v>0.7476331996340501</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9620502043887612</v>
+        <v>563</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.7476331996340501</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>563</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>16.39245196448114</v>
       </c>
     </row>
@@ -6898,72 +6814,66 @@
         <v>2.631657035097128e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.3386265472986992</v>
+        <v>8.798382378265539e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.141177661057537</v>
+        <v>1.648580527532855e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>8.798382378265539e-08</v>
+        <v>-0.008234323814967694</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.648580527532855e-06</v>
+        <v>0.1342887689419867</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.008234323814967694</v>
+        <v>0.01809960516908256</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1342887689419867</v>
+        <v>1.925043681643318</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01809960516908256</v>
+        <v>3.632762606492007</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.956057304745846</v>
+        <v>9.171563471431131</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>3.632762606492007</v>
+        <v>2.365877408671889e-18</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>9.171563471431131</v>
+        <v>56522290858.71321</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.365877408671889e-18</v>
+        <v>2.134132446282954e-09</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>56522290858.71321</v>
+        <v>7558.432664008232</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.134132446282954e-09</v>
+        <v>9.878633441091964e-06</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>7558.432664008232</v>
+        <v>9.211897151976325</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>9.878633441091964e-06</v>
+        <v>1.480981260669242</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.211897151976325</v>
+        <v>0.0008382914405997369</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.480981260669242</v>
+        <v>8.433890560480119</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0008382914405997369</v>
+        <v>0.96168182856818</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>8.433890560480119</v>
+        <v>0.6913510987697399</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.96168182856818</v>
+        <v>564</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.6913510987697399</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>564</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>17.76708828973118</v>
       </c>
     </row>
@@ -6978,72 +6888,66 @@
         <v>2.679125330424523e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.3837995507902581</v>
+        <v>9.050556745895611e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.06440079632209</v>
+        <v>1.648309903332704e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>9.050556745895611e-08</v>
+        <v>-0.0122743076378337</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.648309903332704e-06</v>
+        <v>0.1305593587771982</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.0122743076378337</v>
+        <v>0.01719352432199357</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1305593587771982</v>
+        <v>1.929599128479175</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01719352432199357</v>
+        <v>3.204652439165837</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.958756751224642</v>
+        <v>8.629242597414487</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>3.204652439165837</v>
+        <v>2.282222268411825e-18</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>8.629242597414487</v>
+        <v>56669375447.12847</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.282222268411825e-18</v>
+        <v>2.114900723729822e-09</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>56669375447.12847</v>
+        <v>7329.169931965089</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.114900723729822e-09</v>
+        <v>8.660100513112499e-06</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>7329.169931965089</v>
+        <v>10.40207616163246</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>8.660100513112499e-06</v>
+        <v>1.4050709526343</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.40207616163246</v>
+        <v>0.0009370504880102596</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.4050709526343</v>
+        <v>8.55744867974669</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.0009370504880102596</v>
+        <v>0.9620644062077637</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>8.55744867974669</v>
+        <v>0.7102608699333033</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9620644062077637</v>
+        <v>559</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.7102608699333033</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>559</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>19.11089042005691</v>
       </c>
     </row>
@@ -7058,72 +6962,66 @@
         <v>2.744900559845545e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.4336743896887498</v>
+        <v>9.298809938166556e-08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.9937544235366449</v>
+        <v>1.647912819773125e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>9.298809938166556e-08</v>
+        <v>-0.01712906585811411</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.647912819773125e-06</v>
+        <v>0.1241844695262853</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.01712906585811411</v>
+        <v>0.01571038485470211</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1241844695262853</v>
+        <v>1.936080839086905</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01571038485470211</v>
+        <v>4.178903037240212</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.961885378563983</v>
+        <v>8.691359275711442</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>4.178903037240212</v>
+        <v>2.249717001541437e-18</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>8.691359275711442</v>
+        <v>57317376197.41457</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.249717001541437e-18</v>
+        <v>2.110462304276484e-09</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>57317376197.41457</v>
+        <v>7390.953902218125</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.110462304276484e-09</v>
+        <v>5.264397782435185e-06</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>7390.953902218125</v>
+        <v>11.21865403332301</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>5.264397782435185e-06</v>
+        <v>1.223925861045313</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>11.21865403332301</v>
+        <v>0.000662567620133909</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.223925861045313</v>
+        <v>8.690908466379559</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.000662567620133909</v>
+        <v>0.963309914643423</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>8.690908466379559</v>
+        <v>0.7392242682173523</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.963309914643423</v>
+        <v>584</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.7392242682173523</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>584</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>20.20971376915304</v>
       </c>
     </row>
@@ -7138,72 +7036,66 @@
         <v>2.828977799548763e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.476735349035263</v>
+        <v>9.540719546434422e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.954568947550416</v>
+        <v>1.647356044526718e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>9.540719546434422e-08</v>
+        <v>-0.02297359770827438</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.647356044526718e-06</v>
+        <v>0.1136556050502186</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.02297359770827438</v>
+        <v>0.01343713796670501</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1136556050502186</v>
+        <v>1.939854590043558</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01343713796670501</v>
+        <v>3.671411394665582</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.962297689393105</v>
+        <v>8.725178421271476</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>3.671411394665582</v>
+        <v>2.23231081184579e-18</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>8.725178421271476</v>
+        <v>57489573787.73771</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.23231081184579e-18</v>
+        <v>2.109842491851875e-09</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>57489573787.73771</v>
+        <v>7377.901291499139</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.109842491851875e-09</v>
+        <v>3.657469213532284e-06</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>7377.901291499139</v>
+        <v>10.10710093235969</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>3.657469213532284e-06</v>
+        <v>1.327348566364519</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.10710093235969</v>
+        <v>0.0003736232420120347</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.327348566364519</v>
+        <v>8.786135520325267</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.0003736232420120347</v>
+        <v>0.9627946082968518</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>8.786135520325267</v>
+        <v>0.6591948430456235</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9627946082968518</v>
+        <v>595</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.6591948430456235</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>595</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>20.87507935624414</v>
       </c>
     </row>
@@ -7218,72 +7110,66 @@
         <v>2.92836437297324e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.4999504348818349</v>
+        <v>9.771594161155191e-08</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.9622394162949193</v>
+        <v>1.646597878804701e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>9.771594161155191e-08</v>
+        <v>-0.02967811001422702</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.646597878804701e-06</v>
+        <v>0.09737260763200369</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.02967811001422702</v>
+        <v>0.01035220305219621</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.09737260763200369</v>
+        <v>1.93838758863048</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01035220305219621</v>
+        <v>3.447216247021153</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.965603784100121</v>
+        <v>8.201668748622176</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>3.447216247021153</v>
+        <v>2.006635896516883e-18</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>8.201668748622176</v>
+        <v>61270911777.19308</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.006635896516883e-18</v>
+        <v>1.966949859822761e-09</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>61270911777.19308</v>
+        <v>7533.161242573377</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.966949859822761e-09</v>
+        <v>2.920189429311677e-06</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>7533.161242573377</v>
+        <v>8.30490464024162</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>2.920189429311677e-06</v>
+        <v>1.605819442430342</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.30490464024162</v>
+        <v>0.0002014096731764497</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.605819442430342</v>
+        <v>8.856850774604817</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.0002014096731764497</v>
+        <v>0.962924987025486</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>8.856850774604817</v>
+        <v>0.6344218157574946</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.962924987025486</v>
+        <v>595</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.6344218157574946</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>595</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>21.79388035955661</v>
       </c>
     </row>
@@ -7298,72 +7184,66 @@
         <v>3.035118762093752e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.4973266174536656</v>
+        <v>9.987340145637506e-08</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.005651899979648</v>
+        <v>1.645617519339708e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>9.987340145637506e-08</v>
+        <v>-0.03579579336147651</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.645617519339708e-06</v>
+        <v>0.07938770161293955</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.03579579336147651</v>
+        <v>0.007576310289563413</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.07938770161293955</v>
+        <v>1.938941124412392</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.007576310289563413</v>
+        <v>3.535234673441222</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.965335438007999</v>
+        <v>8.23398354115348</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>3.535234673441222</v>
+        <v>1.990916462512415e-18</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>8.23398354115348</v>
+        <v>62919743790.72594</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.990916462512415e-18</v>
+        <v>1.917719158813675e-09</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>62919743790.72594</v>
+        <v>7881.827553881342</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.917719158813675e-09</v>
+        <v>3.261979887152125e-06</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>7881.827553881342</v>
+        <v>8.043646838741086</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>3.261979887152125e-06</v>
+        <v>1.732966270049308</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.043646838741086</v>
+        <v>0.0002110509287629869</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.732966270049308</v>
+        <v>8.844591303610745</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.0002110509287629869</v>
+        <v>0.9624062693360378</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>8.844591303610745</v>
+        <v>0.6445976654901403</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9624062693360378</v>
+        <v>595</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.6445976654901403</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>595</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>21.94617318098704</v>
       </c>
     </row>
@@ -7378,72 +7258,66 @@
         <v>3.140151873831905e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.4744713274060572</v>
+        <v>1.018407187688189e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.059910996542874</v>
+        <v>1.644434462840415e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.018407187688189e-07</v>
+        <v>-0.04048477834788241</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.644434462840415e-06</v>
+        <v>0.06399963581084389</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.04048477834788241</v>
+        <v>0.005730848273014425</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.06399963581084389</v>
+        <v>1.943305518357345</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.005730848273014425</v>
+        <v>3.751634658178963</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.966295242169424</v>
+        <v>8.15291867106734</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>3.751634658178963</v>
+        <v>2.030704852927388e-18</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>8.15291867106734</v>
+        <v>62157502622.39285</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2.030704852927388e-18</v>
+        <v>1.942559496325751e-09</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>62157502622.39285</v>
+        <v>7845.740156618226</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.942559496325751e-09</v>
+        <v>4.472393811574793e-06</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>7845.740156618226</v>
+        <v>9.00294804069938</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>4.472393811574793e-06</v>
+        <v>1.53504654074479</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.00294804069938</v>
+        <v>0.0003625012639885255</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.53504654074479</v>
+        <v>8.756754460010161</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.0003625012639885255</v>
+        <v>0.9629088472051748</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>8.756754460010161</v>
+        <v>0.6252454103238629</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9629088472051748</v>
+        <v>583</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.6252454103238629</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>583</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>20.88125571323704</v>
       </c>
     </row>
@@ -7458,72 +7332,66 @@
         <v>3.237749852406034e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.4403523199730811</v>
+        <v>1.035543231630756e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.110541310416185</v>
+        <v>1.643087958380761e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.035543231630756e-07</v>
+        <v>-0.04369239826308837</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.643087958380761e-06</v>
+        <v>0.05265374928525988</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.04369239826308837</v>
+        <v>0.004679291984289957</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.05265374928525988</v>
+        <v>1.942493260377614</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.004679291984289957</v>
+        <v>3.608426701769998</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.964574425481132</v>
+        <v>7.807121695078525</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>3.608426701769998</v>
+        <v>2.214578751813695e-18</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>7.807121695078525</v>
+        <v>57279104618.20644</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.214578751813695e-18</v>
+        <v>2.107474823985713e-09</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>57279104618.20644</v>
+        <v>7265.802182871415</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.107474823985713e-09</v>
+        <v>5.869523892054546e-06</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>7265.802182871415</v>
+        <v>10.04785070697608</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>5.869523892054546e-06</v>
+        <v>1.370935577510584</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>10.04785070697608</v>
+        <v>0.0005925830459534995</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.370935577510584</v>
+        <v>8.649423472353385</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.0005925830459534995</v>
+        <v>0.9619533573883282</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>8.649423472353385</v>
+        <v>0.6236279020389781</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9619533573883282</v>
+        <v>557</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.6236279020389781</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>557</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>19.67912796536163</v>
       </c>
     </row>
@@ -7538,72 +7406,66 @@
         <v>3.325115364838012e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.4010338164791426</v>
+        <v>1.049310492847423e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.154196430133188</v>
+        <v>1.641614219979706e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.049310492847423e-07</v>
+        <v>-0.04594001089057123</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.641614219979706e-06</v>
+        <v>0.04376747006648404</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.04594001089057123</v>
+        <v>0.004024876772994813</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.04376747006648404</v>
+        <v>1.937269497454617</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.004024876772994813</v>
+        <v>3.548529294162901</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.964161460418775</v>
+        <v>7.316092031482377</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>3.548529294162901</v>
+        <v>2.770802810024858e-18</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>7.316092031482377</v>
+        <v>45599471293.74918</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.770802810024858e-18</v>
+        <v>2.646957459182054e-09</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>45599471293.74918</v>
+        <v>5761.362929230002</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>2.646957459182054e-09</v>
+        <v>6.30016772368187e-06</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>5761.362929230002</v>
+        <v>11.06772865014353</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>6.30016772368187e-06</v>
+        <v>1.26222433108457</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>11.06772865014353</v>
+        <v>0.0007717366353294621</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.26222433108457</v>
+        <v>8.608901441024056</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.0007717366353294621</v>
+        <v>0.9620779145623116</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>8.608901441024056</v>
+        <v>0.6653302420670081</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9620779145623116</v>
+        <v>517</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.6653302420670081</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>517</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>19.49137511834125</v>
       </c>
     </row>
@@ -7618,72 +7480,66 @@
         <v>3.400263416833231e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.3595425932323425</v>
+        <v>1.058105893029192e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.191998587686138</v>
+        <v>1.640039591551899e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.058105893029192e-07</v>
+        <v>-0.0475618754048512</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.640039591551899e-06</v>
+        <v>0.03614526713728363</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.0475618754048512</v>
+        <v>0.003567913929372584</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.03614526713728363</v>
+        <v>1.931259249725901</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.003567913929372584</v>
+        <v>3.183039870418994</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.965115612269455</v>
+        <v>7.067785678616991</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>3.183039870418994</v>
+        <v>4.007438081716586e-18</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>7.067785678616991</v>
+        <v>31234178152.213</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>4.007438081716586e-18</v>
+        <v>3.863919482166232e-09</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>31234178152.213</v>
+        <v>3909.551937652757</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>3.863919482166232e-09</v>
+        <v>9.333281297490391e-06</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>3909.551937652757</v>
+        <v>12.5385165870302</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>9.333281297490391e-06</v>
+        <v>1.174711012439256</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>12.5385165870302</v>
+        <v>0.001467326202446427</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.174711012439256</v>
+        <v>8.452166777201029</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.001467326202446427</v>
+        <v>0.9627988528787873</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>8.452166777201029</v>
+        <v>0.6799366790939375</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9627988528787873</v>
+        <v>469</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.6799366790939375</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>469</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>19.14500250887601</v>
       </c>
     </row>
@@ -7698,72 +7554,66 @@
         <v>3.461250675587263e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.3173338445066412</v>
+        <v>1.060847108230917e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.226378496526345</v>
+        <v>1.638386519140376e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.060847108230917e-07</v>
+        <v>-0.04864915362966364</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.638386519140376e-06</v>
+        <v>0.02973836700158082</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.04864915362966364</v>
+        <v>0.003250844374499904</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.02973836700158082</v>
+        <v>1.931863765043266</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.003250844374499904</v>
+        <v>3.342221538383429</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.968240434941645</v>
+        <v>6.318352936102842</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>3.342221538383429</v>
+        <v>5.014478819010891e-18</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>6.318352936102842</v>
+        <v>25556084744.76401</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>5.014478819010891e-18</v>
+        <v>4.727119152101916e-09</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>25556084744.76401</v>
+        <v>3275.02364909704</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>4.727119152101916e-09</v>
+        <v>1.953572661034231e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>3275.02364909704</v>
+        <v>13.81871375057491</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>1.953572661034231e-05</v>
+        <v>1.030318168710362</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>13.81871375057491</v>
+        <v>0.00373048081050855</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.030318168710362</v>
+        <v>7.946575859942969</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.00373048081050855</v>
+        <v>0.9620849981966032</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>7.946575859942969</v>
+        <v>0.6877646021212109</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9620849981966032</v>
+        <v>420</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.6877646021212109</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>420</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>17.30762994140337</v>
       </c>
     </row>
@@ -8140,7 +7990,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.295569244085599</v>
+        <v>1.314646773612898</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.224218100453224</v>
@@ -8229,7 +8079,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.303009722677302</v>
+        <v>1.319135960800596</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.095786056183835</v>
@@ -8318,7 +8168,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.330318152353426</v>
+        <v>1.347103386626401</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.202885137240911</v>
@@ -8407,7 +8257,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.353432436315594</v>
+        <v>1.369217817322263</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.177929118870408</v>
@@ -8496,7 +8346,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.392426786669816</v>
+        <v>1.405026267733685</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.245860321903753</v>
@@ -8585,7 +8435,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.38428305427408</v>
+        <v>1.394759502519944</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.573680035473046</v>
@@ -8674,7 +8524,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.391106144950982</v>
+        <v>1.397478292843787</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.45666490026695</v>
@@ -8763,7 +8613,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.381485148664763</v>
+        <v>1.388760374764046</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.446089081690948</v>
@@ -8852,7 +8702,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.383711831038688</v>
+        <v>1.386174188068276</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.567580977850795</v>
@@ -8941,7 +8791,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.403474690466705</v>
+        <v>1.403389608738677</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.33130962620173</v>
@@ -9030,7 +8880,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.438969819925871</v>
+        <v>1.430895680217211</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.429068464636683</v>
@@ -9119,7 +8969,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.457316699295702</v>
+        <v>1.448866259207502</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.130161739245562</v>
@@ -9208,7 +9058,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.508002394343469</v>
+        <v>1.486619951235614</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.698998436322133</v>
@@ -9297,7 +9147,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.508302687807101</v>
+        <v>1.489470564663486</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.52824003393361</v>
@@ -9386,7 +9236,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.453943564351607</v>
+        <v>1.436368291924591</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.935788781347482</v>
@@ -9475,7 +9325,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.460949124967017</v>
+        <v>1.438345270431077</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.917095968008311</v>
@@ -9564,7 +9414,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.478450254146597</v>
+        <v>1.447544802244397</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.984181662395812</v>
@@ -9653,7 +9503,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.456918744792209</v>
+        <v>1.426946727989612</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.931691753791297</v>
@@ -9742,7 +9592,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.476937799692958</v>
+        <v>1.438332265826108</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.938276902384565</v>
@@ -9831,7 +9681,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.481177946009549</v>
+        <v>1.436315912969176</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.895760694561979</v>
@@ -9920,7 +9770,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.491534672638927</v>
+        <v>1.446058212967308</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.91937814363107</v>
@@ -10009,7 +9859,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.505237756501575</v>
+        <v>1.455705971326892</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.064139913011257</v>
@@ -10098,7 +9948,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.516285692149777</v>
+        <v>1.460962394915012</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.89131419534664</v>
@@ -10187,7 +10037,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.518780879965151</v>
+        <v>1.458905829436964</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.91553158038183</v>
@@ -10276,7 +10126,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.518221853023427</v>
+        <v>1.456047210002551</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.92330151906348</v>
@@ -10365,7 +10215,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.512890763436076</v>
+        <v>1.456427573278845</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.938629218410263</v>
@@ -10454,7 +10304,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.520878291407038</v>
+        <v>1.45846442854506</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.89475851878967</v>
@@ -10543,7 +10393,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.520830190216362</v>
+        <v>1.461238270456304</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.881795817837324</v>
@@ -10632,7 +10482,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.522035697235289</v>
+        <v>1.462007436289412</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.955659229850783</v>
@@ -10721,7 +10571,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.603061717887547</v>
+        <v>1.515871721405819</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.726938713843953</v>
@@ -10810,7 +10660,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.601391319699542</v>
+        <v>1.517016130539198</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.583488545441353</v>
@@ -10899,7 +10749,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.60486085761659</v>
+        <v>1.522732709674753</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.622087374113474</v>
@@ -10988,7 +10838,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.632678588833167</v>
+        <v>1.547474387458967</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.288608832055298</v>
@@ -11077,7 +10927,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.61609470153912</v>
+        <v>1.544080738247994</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.448172935118782</v>
@@ -11166,7 +11016,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.623851632997341</v>
+        <v>1.555921901722128</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.909899909026518</v>
@@ -11255,7 +11105,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.628219300502648</v>
+        <v>1.559396790264055</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.637186334045759</v>
@@ -11344,7 +11194,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.629429808123141</v>
+        <v>1.556141934708264</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.57162602981101</v>
@@ -11433,7 +11283,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.628130279676216</v>
+        <v>1.559561107573241</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.46740715498039</v>
@@ -11522,7 +11372,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.632361056064269</v>
+        <v>1.573876442578439</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.728387181305846</v>
@@ -11611,7 +11461,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.620985988448023</v>
+        <v>1.565242022630484</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.763888503019333</v>
@@ -11700,7 +11550,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.595237204753436</v>
+        <v>1.553793280318301</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.654657092417385</v>
@@ -11789,7 +11639,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.570159992867884</v>
+        <v>1.534750414670877</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.571788442953345</v>
@@ -11878,7 +11728,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.548489598849759</v>
+        <v>1.516648897082205</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.532451731225921</v>
@@ -11967,7 +11817,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.552717617862271</v>
+        <v>1.523855929252011</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.565953124854945</v>
@@ -12056,7 +11906,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.545978619568658</v>
+        <v>1.523454642341719</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.708206091802665</v>
@@ -12145,7 +11995,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.550632888032698</v>
+        <v>1.524713151834271</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.492982932228393</v>
@@ -12234,7 +12084,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.548807571691877</v>
+        <v>1.518059769204811</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.518958769038183</v>
@@ -12323,7 +12173,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.552287899600334</v>
+        <v>1.519153513274756</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.607662054698151</v>
@@ -12412,7 +12262,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.55720630749221</v>
+        <v>1.524486748644326</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.61886274657065</v>
@@ -12501,7 +12351,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.554440796426723</v>
+        <v>1.522824561286494</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.623532354011898</v>
@@ -12590,7 +12440,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.560142085329031</v>
+        <v>1.534606918067585</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.661840802972092</v>
@@ -12679,7 +12529,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.55845417444537</v>
+        <v>1.534594766613452</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.656795637197836</v>
@@ -12768,7 +12618,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.562324095866446</v>
+        <v>1.539849090014153</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.591784253852733</v>
@@ -12857,7 +12707,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.554753499946041</v>
+        <v>1.5257608512131</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.641445182965969</v>
@@ -12946,7 +12796,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.567885903759793</v>
+        <v>1.540429557563863</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.509686944852722</v>
@@ -13035,7 +12885,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.60218346356992</v>
+        <v>1.564350073510556</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.568588327293017</v>
@@ -13124,7 +12974,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.620687565047231</v>
+        <v>1.581907303973915</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.339654091144553</v>
@@ -13213,7 +13063,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.653100743489363</v>
+        <v>1.606811958635552</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.320346363109799</v>
@@ -13302,7 +13152,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.644433349884599</v>
+        <v>1.600182582275137</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.249145674924479</v>
@@ -13391,7 +13241,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.639319869562217</v>
+        <v>1.60061696334586</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.36904081549112</v>
@@ -13480,7 +13330,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.637388858861538</v>
+        <v>1.605020340621022</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.240418839244036</v>
@@ -13569,7 +13419,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.649152721493741</v>
+        <v>1.620698231977103</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.91898525197783</v>
@@ -13658,7 +13508,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.637485035706265</v>
+        <v>1.60962732729941</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.046931505708865</v>
@@ -13747,7 +13597,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.619587072084274</v>
+        <v>1.592060457816979</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.790740302939176</v>
@@ -13836,7 +13686,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.61433240860563</v>
+        <v>1.592421639152093</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.035533843907411</v>
@@ -13925,7 +13775,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.601735086436679</v>
+        <v>1.577035101837111</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.067786725215226</v>
@@ -14014,7 +13864,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.567567288045675</v>
+        <v>1.553339344810878</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.61577514825899</v>
@@ -14103,7 +13953,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.563717787071699</v>
+        <v>1.551570756741533</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.62016067817753</v>
@@ -14389,7 +14239,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.648251456484416</v>
+        <v>1.632685159150572</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.758010030677224</v>
@@ -14478,7 +14328,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.648064784609368</v>
+        <v>1.633152829984243</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.682439646236864</v>
@@ -14567,7 +14417,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.659608225486469</v>
+        <v>1.637035847817993</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.674659424073259</v>
@@ -14656,7 +14506,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.656034883484005</v>
+        <v>1.63134527099767</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.674282216656821</v>
@@ -14745,7 +14595,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.67861935910832</v>
+        <v>1.649240301582307</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.304470348859503</v>
@@ -14834,7 +14684,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.684373783001952</v>
+        <v>1.652867318345763</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.237337294690903</v>
@@ -14923,7 +14773,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.682569404160591</v>
+        <v>1.650214574595575</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.038209028419696</v>
@@ -15012,7 +14862,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.673057941700877</v>
+        <v>1.646525564826087</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.808575192871779</v>
@@ -15101,7 +14951,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.68701795371878</v>
+        <v>1.662953273853234</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.268508891510413</v>
@@ -15190,7 +15040,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.70054501382579</v>
+        <v>1.673267796363791</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.593325224679404</v>
@@ -15279,7 +15129,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.706243956982059</v>
+        <v>1.674016564317798</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.303422462705785</v>
@@ -15368,7 +15218,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.718104600196738</v>
+        <v>1.682188461100411</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.393326499118431</v>
@@ -15457,7 +15307,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.706433533895848</v>
+        <v>1.663511913374317</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.946320649936983</v>
@@ -15546,7 +15396,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.70504355425519</v>
+        <v>1.656426281581642</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.906089869656647</v>
@@ -15635,7 +15485,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.701276652626206</v>
+        <v>1.654641800471929</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.273447279326447</v>
@@ -15724,7 +15574,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.691136532556521</v>
+        <v>1.646666021082162</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.518224709802904</v>
@@ -15813,7 +15663,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.678307825177162</v>
+        <v>1.633303375010759</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.731244971759589</v>
@@ -15902,7 +15752,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.660579595499654</v>
+        <v>1.61722314522064</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.601619211884227</v>
@@ -15991,7 +15841,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.661464451174193</v>
+        <v>1.612050585458912</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.725112977957432</v>
@@ -16080,7 +15930,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.662799539238496</v>
+        <v>1.608039738810568</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.641978808099861</v>
@@ -16169,7 +16019,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.644279198874386</v>
+        <v>1.59494164123615</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.702913226986387</v>
@@ -16258,7 +16108,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.64213525711573</v>
+        <v>1.594697955366269</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.471866063227191</v>
@@ -16347,7 +16197,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.644591962806345</v>
+        <v>1.592168280163954</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.142870617532454</v>
@@ -16436,7 +16286,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.628415137330445</v>
+        <v>1.578216178556402</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.105336902343161</v>
@@ -16525,7 +16375,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.609614515129763</v>
+        <v>1.561816415049418</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.973865018516125</v>
@@ -16614,7 +16464,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.59187328432515</v>
+        <v>1.541316275206606</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.959812317018259</v>
@@ -16703,7 +16553,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.577980728693241</v>
+        <v>1.530006415173014</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.971799191958341</v>
@@ -16792,7 +16642,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.573323627921065</v>
+        <v>1.523573753243423</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.133405392944542</v>
@@ -16881,7 +16731,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.566312877376792</v>
+        <v>1.518599029559497</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.079111653502506</v>
@@ -16970,7 +16820,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.5714647949183</v>
+        <v>1.51723351701141</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.156215737395791</v>
@@ -17059,7 +16909,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.572342696342198</v>
+        <v>1.518116125054982</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.089544310170872</v>
@@ -17148,7 +16998,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.570617337514153</v>
+        <v>1.519407805423356</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.873812630265127</v>
@@ -17237,7 +17087,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.572334177266669</v>
+        <v>1.521138128585027</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.924783135782703</v>
@@ -17326,7 +17176,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.566778267777698</v>
+        <v>1.519472003065751</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.936192813028867</v>
@@ -17415,7 +17265,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.574403004661987</v>
+        <v>1.524797801389334</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.692012271486003</v>
@@ -17504,7 +17354,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.585072808217832</v>
+        <v>1.540549759089147</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.879805148245882</v>
@@ -17593,7 +17443,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.586392531291446</v>
+        <v>1.542809736262559</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.090978703606455</v>
@@ -17682,7 +17532,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.601600494676674</v>
+        <v>1.551735144989236</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.975099175490506</v>
@@ -17771,7 +17621,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.602580877153856</v>
+        <v>1.550577882280127</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.386150866100852</v>
@@ -17860,7 +17710,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.624197792920302</v>
+        <v>1.559616498321404</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.360257127869347</v>
@@ -17949,7 +17799,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.651543767194651</v>
+        <v>1.582537205588124</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.932145253081227</v>
@@ -18038,7 +17888,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.657137527807983</v>
+        <v>1.592705819465182</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.311661341868362</v>
@@ -18127,7 +17977,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.66305539503136</v>
+        <v>1.597454919101695</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.819318747248006</v>
@@ -18216,7 +18066,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.673072836694842</v>
+        <v>1.600335776502164</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.557830111600961</v>
@@ -18305,7 +18155,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.660500415419529</v>
+        <v>1.589255216794949</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.455897955267604</v>
@@ -18394,7 +18244,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.661978807001883</v>
+        <v>1.588317276853694</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.551280142724504</v>
@@ -18483,7 +18333,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.669223690020094</v>
+        <v>1.596988111215989</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.444807551080433</v>
@@ -18572,7 +18422,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.666791949424701</v>
+        <v>1.597208140633883</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.595495277212495</v>
@@ -18661,7 +18511,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.657503372263078</v>
+        <v>1.589771262428733</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.110102643727152</v>
@@ -18750,7 +18600,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.652758301962481</v>
+        <v>1.584312459363628</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.467557047080058</v>
@@ -18839,7 +18689,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.642046088571741</v>
+        <v>1.572440398555472</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.629090363195454</v>
@@ -18928,7 +18778,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.642218630512426</v>
+        <v>1.573026276398579</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.132976087510269</v>
@@ -19017,7 +18867,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.630565981588989</v>
+        <v>1.566699769649036</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.114225172813523</v>
@@ -19106,7 +18956,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.613792988228893</v>
+        <v>1.554988076228311</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.960556536326877</v>
@@ -19195,7 +19045,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.600902656036973</v>
+        <v>1.549287687857923</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.112164518034821</v>
@@ -19284,7 +19134,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.603551326575938</v>
+        <v>1.55125132341096</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.002902161825864</v>
@@ -19373,7 +19223,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.601850558029003</v>
+        <v>1.552842763376093</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.130997241571115</v>
@@ -19462,7 +19312,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.605233210543799</v>
+        <v>1.560540251060446</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.31781014025771</v>
@@ -19551,7 +19401,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.589835703677297</v>
+        <v>1.559500733546124</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.123839267793324</v>
@@ -19640,7 +19490,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.591676832419954</v>
+        <v>1.562862775643996</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.366822559969636</v>
@@ -19729,7 +19579,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.594281461548257</v>
+        <v>1.562470221158152</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.134451101914872</v>
@@ -19818,7 +19668,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.591497862634331</v>
+        <v>1.551643003390104</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.130445717623827</v>
@@ -19907,7 +19757,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.592364523942247</v>
+        <v>1.552582035427052</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.261480682048585</v>
@@ -19996,7 +19846,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.601513247331204</v>
+        <v>1.560091439183444</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.146164100779735</v>
@@ -20085,7 +19935,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.597829764897813</v>
+        <v>1.560983063239483</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.07801595385961</v>
@@ -20174,7 +20024,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.599786226152584</v>
+        <v>1.559963376781446</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.194026970103534</v>
@@ -20263,7 +20113,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.582758686718955</v>
+        <v>1.546871809980678</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.960282696729819</v>
@@ -20352,7 +20202,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.583761035945911</v>
+        <v>1.544240682357447</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.778613291221074</v>
@@ -20638,7 +20488,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.603498080269423</v>
+        <v>1.552811618833904</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.181593471850817</v>
@@ -20727,7 +20577,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.567851309871742</v>
+        <v>1.528747461164085</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.920541318139273</v>
@@ -20816,7 +20666,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.559365589800146</v>
+        <v>1.520431933467632</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.912913384597786</v>
@@ -20905,7 +20755,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.548294954143512</v>
+        <v>1.510170221861522</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.722075661128229</v>
@@ -20994,7 +20844,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.544504862848045</v>
+        <v>1.501241928527724</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.594065814850367</v>
@@ -21083,7 +20933,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.532426539908111</v>
+        <v>1.482826492323401</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.751952937507073</v>
@@ -21172,7 +21022,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.520246205727841</v>
+        <v>1.47103909319339</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.871303096995095</v>
@@ -21261,7 +21111,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.494310848832267</v>
+        <v>1.447443255296172</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.595154013049052</v>
@@ -21350,7 +21200,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.487644306294538</v>
+        <v>1.442180813538104</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.717634018962512</v>
@@ -21439,7 +21289,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.484932728528196</v>
+        <v>1.442493062970497</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.677236295033675</v>
@@ -21528,7 +21378,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.487921424016302</v>
+        <v>1.440556935779084</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.783079478894434</v>
@@ -21617,7 +21467,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.489901141151073</v>
+        <v>1.444913766210521</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.679114592491535</v>
@@ -21706,7 +21556,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.487959213351708</v>
+        <v>1.442369551991561</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.718151402372016</v>
@@ -21795,7 +21645,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.48137931877056</v>
+        <v>1.434844493165448</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.72052382335918</v>
@@ -21884,7 +21734,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.476507054651555</v>
+        <v>1.433436613122115</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.839793504233884</v>
@@ -21973,7 +21823,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.476928977686316</v>
+        <v>1.421726912208372</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.53448469964819</v>
@@ -22062,7 +21912,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.50324588409191</v>
+        <v>1.43631442138367</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.701632208168969</v>
@@ -22151,7 +22001,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.503052164936709</v>
+        <v>1.434946788622015</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.820861334632109</v>
@@ -22240,7 +22090,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.506260815282021</v>
+        <v>1.436506442856704</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.525947342469944</v>
@@ -22329,7 +22179,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.508860026713657</v>
+        <v>1.441206136192499</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.653820577153813</v>
@@ -22418,7 +22268,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.526380777698665</v>
+        <v>1.461270502064021</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.860223114529655</v>
@@ -22507,7 +22357,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.533167253674443</v>
+        <v>1.459642676767251</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.525000296689227</v>
@@ -22596,7 +22446,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.548590960261486</v>
+        <v>1.471307194302531</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.303040966235662</v>
@@ -22685,7 +22535,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.552612264273295</v>
+        <v>1.475903482837079</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.29632999754746</v>
@@ -22774,7 +22624,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.559015446199965</v>
+        <v>1.478039013756452</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.037846233204485</v>
@@ -22863,7 +22713,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.563036154330499</v>
+        <v>1.484538424433687</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.631891797925325</v>
@@ -22952,7 +22802,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.558321621120574</v>
+        <v>1.477154917672782</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.316572222255622</v>
@@ -23041,7 +22891,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.557547161692627</v>
+        <v>1.472452320136322</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.45396344299426</v>
@@ -23130,7 +22980,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.55394781252779</v>
+        <v>1.466776562394601</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.648186580884495</v>
@@ -23219,7 +23069,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.556312098366997</v>
+        <v>1.455925286974724</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.654777072790118</v>
@@ -23308,7 +23158,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.558080619475545</v>
+        <v>1.459638875989567</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.39512439893777</v>
@@ -23397,7 +23247,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.564150579599611</v>
+        <v>1.466235240235896</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.136543183117364</v>
@@ -23486,7 +23336,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.557335111974752</v>
+        <v>1.465052487655663</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.536206045394074</v>
@@ -23575,7 +23425,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.547374482834766</v>
+        <v>1.458063528113675</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.868288802674833</v>
@@ -23664,7 +23514,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.530271274157533</v>
+        <v>1.44390405924711</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.887543192038915</v>
@@ -23753,7 +23603,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.527046504534837</v>
+        <v>1.441657723114499</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.971866303105172</v>
@@ -23842,7 +23692,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.528486915688892</v>
+        <v>1.443762627793644</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.195486282545371</v>
@@ -23931,7 +23781,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.537086853151562</v>
+        <v>1.449625786468512</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.054391448324703</v>
@@ -24020,7 +23870,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.527732330607129</v>
+        <v>1.446287028599033</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.898555493001402</v>
@@ -24109,7 +23959,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.528460156063803</v>
+        <v>1.450569603554292</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.131423376540492</v>
@@ -24198,7 +24048,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.522492844957265</v>
+        <v>1.448108141073287</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.119086129949153</v>
@@ -24287,7 +24137,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.528589573477639</v>
+        <v>1.452172081087894</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.185554281825704</v>
@@ -24376,7 +24226,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.539684095886126</v>
+        <v>1.456925129509219</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.790005260655278</v>
@@ -24465,7 +24315,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.539673540835914</v>
+        <v>1.459303074337529</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.123567269090361</v>
@@ -24554,7 +24404,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.540854345643435</v>
+        <v>1.468586181772567</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.81072124282967</v>
@@ -24643,7 +24493,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.54713789231458</v>
+        <v>1.474046088472185</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.825218884649782</v>
@@ -24732,7 +24582,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.549427109537687</v>
+        <v>1.476048395064617</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.119810754532167</v>
@@ -24821,7 +24671,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.55649928136867</v>
+        <v>1.477948914042247</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.808949777696326</v>
@@ -24910,7 +24760,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.559839185394202</v>
+        <v>1.477284194098769</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.998105365429456</v>
@@ -24999,7 +24849,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.572805325376879</v>
+        <v>1.489375558012664</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.686432937787531</v>
@@ -25088,7 +24938,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.580682351626187</v>
+        <v>1.499731417784836</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.732701474054156</v>
@@ -25177,7 +25027,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.595504107729132</v>
+        <v>1.511432751507243</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.864072015020269</v>
@@ -25266,7 +25116,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.589438478819761</v>
+        <v>1.514728892864001</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.865608182954704</v>
@@ -25355,7 +25205,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.602834105825067</v>
+        <v>1.514703076795509</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.200754984738153</v>
@@ -25444,7 +25294,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.600569615450169</v>
+        <v>1.510803106592515</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.345092224977636</v>
@@ -25533,7 +25383,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.610597205239494</v>
+        <v>1.513085329701094</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.046139778872008</v>
@@ -25622,7 +25472,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.591416620536074</v>
+        <v>1.505178284633417</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.198880959965813</v>
@@ -25711,7 +25561,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.572626105386369</v>
+        <v>1.492199003428864</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.102337667384618</v>
@@ -25800,7 +25650,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.586212264108404</v>
+        <v>1.502848875808446</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.196164899221389</v>
@@ -25889,7 +25739,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.579847638127892</v>
+        <v>1.50466670771168</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.06425603794033</v>
@@ -25978,7 +25828,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.56264846122333</v>
+        <v>1.493661481056795</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.987891210259775</v>
@@ -26067,7 +25917,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.561576822178957</v>
+        <v>1.49342817827512</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.915444739811349</v>
@@ -26156,7 +26006,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.566587346865096</v>
+        <v>1.499893111480461</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.199201260472625</v>
@@ -26245,7 +26095,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.574684906447667</v>
+        <v>1.507975032263208</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.453957051978546</v>
@@ -26334,7 +26184,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.582227743639004</v>
+        <v>1.510450140540393</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.058292635995109</v>
@@ -26423,7 +26273,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.578390028678095</v>
+        <v>1.497579014915496</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.362943432522101</v>
@@ -26512,7 +26362,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.573872190320338</v>
+        <v>1.497990240126469</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.094374275856425</v>
@@ -26601,7 +26451,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.570663814812719</v>
+        <v>1.493460262181015</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.070388211032204</v>
@@ -26887,7 +26737,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.316529585046218</v>
+        <v>1.307221633968236</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.665364594268403</v>
@@ -26976,7 +26826,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.318644967662822</v>
+        <v>1.306472593633289</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.653848815912192</v>
@@ -27065,7 +26915,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.307584136242862</v>
+        <v>1.296540225136199</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.669574569001429</v>
@@ -27154,7 +27004,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.308055651954542</v>
+        <v>1.29766041532506</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.672201399149062</v>
@@ -27243,7 +27093,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.305009012969796</v>
+        <v>1.28694586854186</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.648579303946211</v>
@@ -27332,7 +27182,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.307220024130072</v>
+        <v>1.291695789072651</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.664279125958962</v>
@@ -27421,7 +27271,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.304665456466221</v>
+        <v>1.283598599586764</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.662542331819813</v>
@@ -27510,7 +27360,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.306797667156766</v>
+        <v>1.286105153751612</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.657288211630908</v>
@@ -27599,7 +27449,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.299849741239511</v>
+        <v>1.27928699982802</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.640120442529792</v>
@@ -27688,7 +27538,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.311674993878699</v>
+        <v>1.285918715568905</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.632100962786764</v>
@@ -27777,7 +27627,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.410931310937378</v>
+        <v>1.372634009268274</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.226651359350491</v>
@@ -27866,7 +27716,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.423913494163345</v>
+        <v>1.377504060449941</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.964892781742832</v>
@@ -27955,7 +27805,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.438031284715614</v>
+        <v>1.388105144587039</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.315192306484698</v>
@@ -28044,7 +27894,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.437628265742686</v>
+        <v>1.385170437051069</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.531855104646525</v>
@@ -28133,7 +27983,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.436347089472289</v>
+        <v>1.382828082311816</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.391550717304595</v>
@@ -28222,7 +28072,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.426282820598334</v>
+        <v>1.372105118012019</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.449730860971204</v>
@@ -28311,7 +28161,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.429776006351577</v>
+        <v>1.372877897069434</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.21934242456794</v>
@@ -28400,7 +28250,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.410730758872003</v>
+        <v>1.358278951587965</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.151272294718818</v>
@@ -28489,7 +28339,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.415511291345786</v>
+        <v>1.359629734778882</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.275740938088904</v>
@@ -28578,7 +28428,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.42291287985156</v>
+        <v>1.363480529242565</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.264475567046193</v>
@@ -28667,7 +28517,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.419942093037953</v>
+        <v>1.363466308566938</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.271224484964041</v>
@@ -28756,7 +28606,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.423221596019023</v>
+        <v>1.369422513424024</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.242085842055547</v>
@@ -28845,7 +28695,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.395372209922716</v>
+        <v>1.348922536038502</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.314719693506117</v>
@@ -28934,7 +28784,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.39950197635593</v>
+        <v>1.352936751770963</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.208705422047289</v>
@@ -29023,7 +28873,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.398524210650609</v>
+        <v>1.354617593745232</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.23181629840513</v>
@@ -29112,7 +28962,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.397660411379074</v>
+        <v>1.350944971137509</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.255578826765616</v>
@@ -29201,7 +29051,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.408152843714288</v>
+        <v>1.358394304707062</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.211503600946378</v>
@@ -29290,7 +29140,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.382118996508015</v>
+        <v>1.341699569798629</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.207531003382215</v>
@@ -29379,7 +29229,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.381158493543706</v>
+        <v>1.340047656493606</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.079216791497532</v>
@@ -29468,7 +29318,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.387679205566466</v>
+        <v>1.343533233858585</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.227828448102426</v>
@@ -29557,7 +29407,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.389410144242442</v>
+        <v>1.346345392258047</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.134549860350183</v>
@@ -29646,7 +29496,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.387581524676867</v>
+        <v>1.348548491198157</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.94837511812049</v>
@@ -29735,7 +29585,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.399519455218368</v>
+        <v>1.357468931110664</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.292373883310629</v>
@@ -29824,7 +29674,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.368178791530764</v>
+        <v>1.333014326904909</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.291311178115093</v>
@@ -29913,7 +29763,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.363750919583419</v>
+        <v>1.330963232267524</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.20753614078957</v>
@@ -30002,7 +29852,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.372569647156509</v>
+        <v>1.338020175887441</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.272524812835008</v>
@@ -30091,7 +29941,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.377179248872361</v>
+        <v>1.338887891298678</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.2139358359288</v>
@@ -30180,7 +30030,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.390659666313371</v>
+        <v>1.359787101052292</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.209648781531162</v>
@@ -30269,7 +30119,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.394462122159125</v>
+        <v>1.36287869410316</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.268649985203993</v>
@@ -30358,7 +30208,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.394664573995716</v>
+        <v>1.362417268366555</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.111646162850681</v>
@@ -30447,7 +30297,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.392685226576515</v>
+        <v>1.362603719185086</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.278709224689708</v>
@@ -30536,7 +30386,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.401896678685491</v>
+        <v>1.370698582079638</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.262567374199154</v>
@@ -30625,7 +30475,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.418423135447697</v>
+        <v>1.376880915702937</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.242886257573618</v>
@@ -30714,7 +30564,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.417485953261175</v>
+        <v>1.369458746095535</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.264599415195312</v>
@@ -30803,7 +30653,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.410766341980561</v>
+        <v>1.364255801395668</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.247738622308047</v>
@@ -30892,7 +30742,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.426386082562115</v>
+        <v>1.375327814558095</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.226047209673932</v>
@@ -30981,7 +30831,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.431024588547427</v>
+        <v>1.372889547126923</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.253884783670249</v>
@@ -31070,7 +30920,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.428676455839231</v>
+        <v>1.372700603871137</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.321902808874248</v>
@@ -31159,7 +31009,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.463074583222589</v>
+        <v>1.397303380898517</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.281641044261449</v>
@@ -31248,7 +31098,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.465607868302136</v>
+        <v>1.401164214848787</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.396257188915666</v>
@@ -31337,7 +31187,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.462113597858294</v>
+        <v>1.400990696620509</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.353126631031118</v>
@@ -31426,7 +31276,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.432512706364478</v>
+        <v>1.376467318055083</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.211359287698612</v>
@@ -31515,7 +31365,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.437103985691848</v>
+        <v>1.380614360227668</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.233283633310465</v>
@@ -31604,7 +31454,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.401664146360525</v>
+        <v>1.354714065078895</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.282550070830554</v>
@@ -31693,7 +31543,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.399279298859233</v>
+        <v>1.358490014983112</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.271750275773859</v>
@@ -31782,7 +31632,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.408622391412437</v>
+        <v>1.36385454393516</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.316893618477056</v>
@@ -31871,7 +31721,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.396258433269537</v>
+        <v>1.355699299700155</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.35240895214261</v>
@@ -31960,7 +31810,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.377867514587488</v>
+        <v>1.345450980028596</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.225778746620281</v>
@@ -32049,7 +31899,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.364904173366897</v>
+        <v>1.342907618424749</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.296940902700216</v>
@@ -32138,7 +31988,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.370688058919289</v>
+        <v>1.349158217989328</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.277905319847693</v>
@@ -32227,7 +32077,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.356675962864293</v>
+        <v>1.337405564820637</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.334202527759198</v>
@@ -32316,7 +32166,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.373382991945293</v>
+        <v>1.349859868921858</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.22360725313794</v>
@@ -32405,7 +32255,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.363887791969484</v>
+        <v>1.343885539787568</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.323590297162186</v>
@@ -32494,7 +32344,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.371169529760001</v>
+        <v>1.352963751728898</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.256437850507582</v>
@@ -32583,7 +32433,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.366676055835452</v>
+        <v>1.346711007906229</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.278845451054804</v>
@@ -32672,7 +32522,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.368891784274201</v>
+        <v>1.350331906646628</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.296800052216116</v>
@@ -32761,7 +32611,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.403746495738757</v>
+        <v>1.382326616468296</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.207094121077582</v>
@@ -32850,7 +32700,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.3978284083686</v>
+        <v>1.375925177210869</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.345717026442451</v>
@@ -33136,7 +32986,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.40561470987873</v>
+        <v>1.421468105693182</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.294232320532064</v>
@@ -33225,7 +33075,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.412419483135541</v>
+        <v>1.42860036942323</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.402446327882652</v>
@@ -33314,7 +33164,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.412379122341725</v>
+        <v>1.426941705079657</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.159087750718163</v>
@@ -33403,7 +33253,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.403467702580967</v>
+        <v>1.416940431283666</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.217599421040431</v>
@@ -33492,7 +33342,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.424217821317491</v>
+        <v>1.441095468578294</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.968672620763742</v>
@@ -33581,7 +33431,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.426110843235028</v>
+        <v>1.444429874048693</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.547129363870096</v>
@@ -33670,7 +33520,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.427920673065173</v>
+        <v>1.443666953818612</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.483176511454886</v>
@@ -33759,7 +33609,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.431674254998795</v>
+        <v>1.444969112687956</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.385065156805346</v>
@@ -33848,7 +33698,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.429406207672535</v>
+        <v>1.44621611314634</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.607891160582366</v>
@@ -33937,7 +33787,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.420270363378233</v>
+        <v>1.433630015874556</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.451527342153365</v>
@@ -34026,7 +33876,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.406131168533763</v>
+        <v>1.416277580352356</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.522263578967665</v>
@@ -34115,7 +33965,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.394073752410237</v>
+        <v>1.405085482763227</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.507167464747731</v>
@@ -34204,7 +34054,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.37459022840024</v>
+        <v>1.384649074589404</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.576276585511341</v>
@@ -34293,7 +34143,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.360350321759287</v>
+        <v>1.369048724304206</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.357593633115123</v>
@@ -34382,7 +34232,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.348529706081999</v>
+        <v>1.356075027749554</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.446527393872749</v>
@@ -34471,7 +34321,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.318188409271318</v>
+        <v>1.320946376303506</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.178611071977177</v>
@@ -34560,7 +34410,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.309405939201619</v>
+        <v>1.312826498741461</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.194839780227142</v>
@@ -34649,7 +34499,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.292749734101682</v>
+        <v>1.288763276270235</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.985423097342698</v>
@@ -34738,7 +34588,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.293220630231997</v>
+        <v>1.285746470885589</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.045293999993658</v>
@@ -34827,7 +34677,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.291645268851478</v>
+        <v>1.280237314370372</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.197323241465322</v>
@@ -34916,7 +34766,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.270933673105136</v>
+        <v>1.262058905410142</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.123517349634232</v>
@@ -35005,7 +34855,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.260682944891165</v>
+        <v>1.250338008100283</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.23150970431088</v>
@@ -35094,7 +34944,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.262772033690571</v>
+        <v>1.250198532995359</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.213692057084055</v>
@@ -35183,7 +35033,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.248169297434087</v>
+        <v>1.238420395846392</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.137494206593939</v>
@@ -35272,7 +35122,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.250992530684639</v>
+        <v>1.244813844613012</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.064611961764053</v>
@@ -35361,7 +35211,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.252931818087543</v>
+        <v>1.248553345344384</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.093603615922703</v>
@@ -35450,7 +35300,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.256772934073859</v>
+        <v>1.252301528566411</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.183465910381313</v>
@@ -35539,7 +35389,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.272427963982011</v>
+        <v>1.265645022636034</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.163100832830524</v>
@@ -35628,7 +35478,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.27716434319526</v>
+        <v>1.268421363386075</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.145583404987042</v>
@@ -35717,7 +35567,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.271333615124019</v>
+        <v>1.262451483944186</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.1593348813914</v>
@@ -35806,7 +35656,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.291377138986506</v>
+        <v>1.283770214644684</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.048059704455232</v>
@@ -35895,7 +35745,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.305444427186162</v>
+        <v>1.299247267027262</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.082493099155106</v>
@@ -35984,7 +35834,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.33781495216952</v>
+        <v>1.335949491758345</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.232862678712132</v>
@@ -36073,7 +35923,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.334091890499292</v>
+        <v>1.324590139089822</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.215639905387909</v>
@@ -36162,7 +36012,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.323323690226038</v>
+        <v>1.317086882593399</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.080962329078122</v>
@@ -36251,7 +36101,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.342334901550873</v>
+        <v>1.336737044883587</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.238094357020254</v>
@@ -36340,7 +36190,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.351669640721985</v>
+        <v>1.347814478681474</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.160880747172031</v>
@@ -36429,7 +36279,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.348429238518988</v>
+        <v>1.340935090717499</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.198644308110898</v>
@@ -36518,7 +36368,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.351101525187699</v>
+        <v>1.34726310764796</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.250910828323903</v>
@@ -36607,7 +36457,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.358834398933284</v>
+        <v>1.348193815265089</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.16738626643598</v>
@@ -36696,7 +36546,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.354304804669838</v>
+        <v>1.34606169103879</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.177579775751877</v>
@@ -36785,7 +36635,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.349747688489145</v>
+        <v>1.343295851249374</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.221894961289488</v>
@@ -36874,7 +36724,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.331127862134029</v>
+        <v>1.32767455289916</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.222419472755963</v>
@@ -36963,7 +36813,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.327577070146769</v>
+        <v>1.32343318295677</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.261365922351784</v>
@@ -37052,7 +36902,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.341847227212313</v>
+        <v>1.33439260766573</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.209109090539396</v>
@@ -37141,7 +36991,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.342594164458764</v>
+        <v>1.33514399756673</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.24402805149641</v>
@@ -37230,7 +37080,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.338223141054621</v>
+        <v>1.330200975435595</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.226623726066478</v>
@@ -37319,7 +37169,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.307422014803542</v>
+        <v>1.296599196326232</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.199560581324323</v>
@@ -37408,7 +37258,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.289231666265223</v>
+        <v>1.282098128882464</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.902030456573505</v>
@@ -37497,7 +37347,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.280659605863686</v>
+        <v>1.277137545396905</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.024905734086241</v>
@@ -37586,7 +37436,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.258085285187872</v>
+        <v>1.253824093785178</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.133623237858517</v>
@@ -37675,7 +37525,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.236956805926809</v>
+        <v>1.232164046602986</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.120811837612821</v>
@@ -37764,7 +37614,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.243219791245607</v>
+        <v>1.240118273657081</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.118830402231477</v>
@@ -37853,7 +37703,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.241268782701755</v>
+        <v>1.232478112927952</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.105914615615213</v>
@@ -37942,7 +37792,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.232237313130159</v>
+        <v>1.228919518495826</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.064015339001058</v>
@@ -38031,7 +37881,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.245927177637019</v>
+        <v>1.240976309703298</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.095346760254825</v>
@@ -38120,7 +37970,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.230166836157343</v>
+        <v>1.225283613744214</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.081046569606842</v>
@@ -38209,7 +38059,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.241391119744579</v>
+        <v>1.235650200631508</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.106810100358327</v>
@@ -38298,7 +38148,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.234917605777931</v>
+        <v>1.23119068698955</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.185859578694936</v>
@@ -38387,7 +38237,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.229975354549352</v>
+        <v>1.228457462428843</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.130228437720421</v>
@@ -38476,7 +38326,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.223053904148155</v>
+        <v>1.220478267732881</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.110775698800271</v>
@@ -38565,7 +38415,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.224529186226598</v>
+        <v>1.222637650727368</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.146633528855924</v>
@@ -38654,7 +38504,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.242253058080045</v>
+        <v>1.239507362318376</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.157513013502895</v>
@@ -38743,7 +38593,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.275098664758417</v>
+        <v>1.267776884455341</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.140832831215713</v>
@@ -38832,7 +38682,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.259802266386743</v>
+        <v>1.257689386093812</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.158356445564763</v>
@@ -38921,7 +38771,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.294164508922031</v>
+        <v>1.295109724388121</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.214879567635422</v>
@@ -39010,7 +38860,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.309498905744473</v>
+        <v>1.313532984450839</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.222961489573049</v>
@@ -39099,7 +38949,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.309843936921338</v>
+        <v>1.312658621318999</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.321951389190144</v>
@@ -39385,7 +39235,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.397882854957772</v>
+        <v>1.402328602358205</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.660767857839546</v>
@@ -39474,7 +39324,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.400737001564312</v>
+        <v>1.403602877976354</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.394826174148343</v>
@@ -39563,7 +39413,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.446377311988803</v>
+        <v>1.445253451761431</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.552045285507442</v>
@@ -39652,7 +39502,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.470153831043882</v>
+        <v>1.466934962333771</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.559113972944175</v>
@@ -39741,7 +39591,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.466810928655871</v>
+        <v>1.46191748411474</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.565991339496971</v>
@@ -39830,7 +39680,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.442756807877685</v>
+        <v>1.439733759262079</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.607285630658208</v>
@@ -39919,7 +39769,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.418408724721902</v>
+        <v>1.412586173517373</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.701809219520384</v>
@@ -40008,7 +39858,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.413397927676596</v>
+        <v>1.406551859595139</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.71891726545525</v>
@@ -40097,7 +39947,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.412208740452562</v>
+        <v>1.39936700616901</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.495853968223427</v>
@@ -40186,7 +40036,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.427526022263705</v>
+        <v>1.413424450880833</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.441443907344138</v>
@@ -40275,7 +40125,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.44916261076846</v>
+        <v>1.429555844320107</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.475271618935259</v>
@@ -40364,7 +40214,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.471760736492269</v>
+        <v>1.447083695333019</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.385981012776855</v>
@@ -40453,7 +40303,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.520863383929147</v>
+        <v>1.478067608982715</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.886539734209272</v>
@@ -40542,7 +40392,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.519687817315946</v>
+        <v>1.47328872600471</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.469042084156643</v>
@@ -40631,7 +40481,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.526815769097183</v>
+        <v>1.477095957069109</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.725187672357928</v>
@@ -40720,7 +40570,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.527768791079094</v>
+        <v>1.473463749583689</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.924192917643186</v>
@@ -40809,7 +40659,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.540413664981343</v>
+        <v>1.482253993443583</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.9037717187834</v>
@@ -40898,7 +40748,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.510801611590398</v>
+        <v>1.456884600522443</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.440278529501895</v>
@@ -40987,7 +40837,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.52916983099795</v>
+        <v>1.466289097129813</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.664558685097662</v>
@@ -41076,7 +40926,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.540505539003516</v>
+        <v>1.476824525152885</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.661090263573509</v>
@@ -41165,7 +41015,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.561234162821103</v>
+        <v>1.490974795174466</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.457481253482771</v>
@@ -41254,7 +41104,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.579446396152816</v>
+        <v>1.501414136125969</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.350605607099907</v>
@@ -41343,7 +41193,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.587084786393545</v>
+        <v>1.506805554458363</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.373185948773894</v>
@@ -41432,7 +41282,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.593915032904058</v>
+        <v>1.510779884106949</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.447858574925763</v>
@@ -41521,7 +41371,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.59718543085435</v>
+        <v>1.510513444852045</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.544709060643097</v>
@@ -41610,7 +41460,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.582956239474311</v>
+        <v>1.493853672827331</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.448708570922515</v>
@@ -41699,7 +41549,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.586275823140643</v>
+        <v>1.494223563530213</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.445508666887815</v>
@@ -41788,7 +41638,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.589290314938532</v>
+        <v>1.504275217266759</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.350449725443699</v>
@@ -41877,7 +41727,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.596538415053081</v>
+        <v>1.514523806399431</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.462351861434388</v>
@@ -41966,7 +41816,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.601652098899897</v>
+        <v>1.513236188925339</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.347281263708441</v>
@@ -42055,7 +41905,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.609749156909492</v>
+        <v>1.516940218277947</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.516020725634479</v>
@@ -42144,7 +41994,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.609723475375536</v>
+        <v>1.515427125287988</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.567714317310396</v>
@@ -42233,7 +42083,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.644598566997844</v>
+        <v>1.539322296727298</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.531458214653306</v>
@@ -42322,7 +42172,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.637814403780893</v>
+        <v>1.544167531573355</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.443320767323782</v>
@@ -42411,7 +42261,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.634762061225856</v>
+        <v>1.539285106115884</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.170904667343647</v>
@@ -42500,7 +42350,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.635933700205571</v>
+        <v>1.544239698536981</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.467493637129914</v>
@@ -42589,7 +42439,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.633240565947221</v>
+        <v>1.541126040848492</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.373757246377767</v>
@@ -42678,7 +42528,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.628375702283461</v>
+        <v>1.536791641843982</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.476965839474441</v>
@@ -42767,7 +42617,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.630318883635129</v>
+        <v>1.548065756315364</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.21199659264355</v>
@@ -42856,7 +42706,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.619512361472434</v>
+        <v>1.539167288083425</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.712561558267327</v>
@@ -42945,7 +42795,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.59860246650938</v>
+        <v>1.535836872441926</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.91601469968817</v>
@@ -43034,7 +42884,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.57133014491688</v>
+        <v>1.51596259282289</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.490954221121615</v>
@@ -43123,7 +42973,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.543456817983829</v>
+        <v>1.490997329543608</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.637726878991565</v>
@@ -43212,7 +43062,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.540816234786087</v>
+        <v>1.485181301914979</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.488309123323012</v>
@@ -43301,7 +43151,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.537856401491901</v>
+        <v>1.482433144858879</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.387986172545104</v>
@@ -43390,7 +43240,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.546785815972552</v>
+        <v>1.491020531279322</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.518227571398611</v>
@@ -43479,7 +43329,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.548254972377134</v>
+        <v>1.490113833670867</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.440748482081676</v>
@@ -43568,7 +43418,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.550683403680094</v>
+        <v>1.492973349900102</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.580453122962114</v>
@@ -43657,7 +43507,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.552166846631277</v>
+        <v>1.49494337175857</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.421229227114303</v>
@@ -43746,7 +43596,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.546055392834693</v>
+        <v>1.491307132216698</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.451049767937488</v>
@@ -43835,7 +43685,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.546219983380936</v>
+        <v>1.490129433122452</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.530722408168876</v>
@@ -43924,7 +43774,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.552747786812809</v>
+        <v>1.494681323101436</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.551265792100418</v>
@@ -44013,7 +43863,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.552216725119251</v>
+        <v>1.495978554902519</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.5120090869777</v>
@@ -44102,7 +43952,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.552012329116954</v>
+        <v>1.492983262696891</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.329936554264961</v>
@@ -44191,7 +44041,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.564115899467506</v>
+        <v>1.502438423364665</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.331699020763</v>
@@ -44280,7 +44130,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.585723341976731</v>
+        <v>1.516058411746228</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.458280682392422</v>
@@ -44369,7 +44219,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.598599899177107</v>
+        <v>1.528264430201108</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.342229127212495</v>
@@ -44458,7 +44308,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.630919302299527</v>
+        <v>1.550621922983016</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.431919325981062</v>
@@ -44547,7 +44397,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.635880100906054</v>
+        <v>1.561991170894121</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.50355066825862</v>
@@ -44636,7 +44486,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.63101542514732</v>
+        <v>1.563625212220572</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.043780678565137</v>
@@ -44725,7 +44575,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.622609880591758</v>
+        <v>1.555702246164283</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.287803318791164</v>
@@ -44814,7 +44664,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.632005872946868</v>
+        <v>1.572936602056683</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.241410297512417</v>
@@ -44903,7 +44753,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.620826008569662</v>
+        <v>1.56229613515095</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.009102649854197</v>
@@ -44992,7 +44842,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.609935017570627</v>
+        <v>1.557631358539022</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.004186028964266</v>
@@ -45081,7 +44931,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.615281865926593</v>
+        <v>1.561807905418449</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.070487660717482</v>
@@ -45170,7 +45020,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.601206110289884</v>
+        <v>1.555038445505995</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.926002570113245</v>
@@ -45259,7 +45109,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.608183004957233</v>
+        <v>1.569286655838431</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.014217573261916</v>
@@ -45348,7 +45198,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.610406539074623</v>
+        <v>1.567502857244937</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.278619319863687</v>
